--- a/evaluation/results/autoencoder/split_4/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/autoencoder/split_4/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.6357677902621723</v>
+        <v>0.6273408239700374</v>
       </c>
       <c r="C2">
-        <v>0.5813692480359147</v>
+        <v>0.5739130434782609</v>
       </c>
       <c r="D2">
-        <v>0.9700374531835206</v>
+        <v>0.9887640449438202</v>
       </c>
       <c r="E2">
-        <v>0.7270175438596491</v>
+        <v>0.7262723521320495</v>
       </c>
       <c r="F2">
-        <v>0.8556326395771391</v>
+        <v>0.8638743455497382</v>
       </c>
       <c r="G2">
-        <v>0.9457201039252862</v>
+        <v>0.9620182200420463</v>
       </c>
       <c r="H2">
-        <v>0.7760524064021097</v>
+        <v>0.7767783248467505</v>
       </c>
       <c r="I2">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="J2">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="K2">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="L2">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9096045197740112</v>
+        <v>0.9594594594594594</v>
       </c>
       <c r="C2">
-        <v>0.301498127340824</v>
+        <v>0.2659176029962547</v>
       </c>
       <c r="D2">
-        <v>0.4528832630098453</v>
+        <v>0.4164222873900293</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.5813692480359147</v>
+        <v>0.5739130434782609</v>
       </c>
       <c r="C3">
-        <v>0.9700374531835206</v>
+        <v>0.9887640449438202</v>
       </c>
       <c r="D3">
-        <v>0.7270175438596491</v>
+        <v>0.7262723521320495</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.6357677902621723</v>
+        <v>0.6273408239700374</v>
       </c>
       <c r="C4">
-        <v>0.6357677902621723</v>
+        <v>0.6273408239700374</v>
       </c>
       <c r="D4">
-        <v>0.6357677902621723</v>
+        <v>0.6273408239700374</v>
       </c>
       <c r="E4">
-        <v>0.6357677902621723</v>
+        <v>0.6273408239700374</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.745486883904963</v>
+        <v>0.7666862514688602</v>
       </c>
       <c r="C5">
-        <v>0.6357677902621723</v>
+        <v>0.6273408239700374</v>
       </c>
       <c r="D5">
-        <v>0.5899504034347471</v>
+        <v>0.5713473197610395</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.745486883904963</v>
+        <v>0.7666862514688602</v>
       </c>
       <c r="C6">
-        <v>0.6357677902621723</v>
+        <v>0.6273408239700374</v>
       </c>
       <c r="D6">
-        <v>0.5899504034347471</v>
+        <v>0.5713473197610395</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C2">
-        <v>373</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>518</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
